--- a/сравнение.xlsx
+++ b/сравнение.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
   <si>
     <t>Blinger</t>
   </si>
@@ -91,40 +91,196 @@
     <t>Хранение статуса сообщений</t>
   </si>
   <si>
-    <t>Сервис</t>
-  </si>
-  <si>
-    <t>Круглосуточная поддержка</t>
-  </si>
-  <si>
-    <t>Надёжность сервиса</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стоимость </t>
-  </si>
-  <si>
-    <t>Количество менеджеров минимум 10</t>
-  </si>
-  <si>
     <t>Поддержка всех браузеров</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>-</t>
+    <t>Обращение за период</t>
+  </si>
+  <si>
+    <t>Принятых/не отвеченных</t>
+  </si>
+  <si>
+    <t>Время отклика на сообщение</t>
+  </si>
+  <si>
+    <t>Кастомизация</t>
+  </si>
+  <si>
+    <t>нет</t>
+  </si>
+  <si>
+    <t>есть</t>
+  </si>
+  <si>
+    <t>есть, но клиент не видит разницы между онлайн и оффлайн</t>
+  </si>
+  <si>
+    <t>цвет (красный, синий, зелёный, чёрный, оранжевый), позиция (справа-слева), язык виджета</t>
+  </si>
+  <si>
+    <t>только список анонимных диалогов, без фильтрации, без сортировки (но есть неназначенные, мои, закрытые)</t>
+  </si>
+  <si>
+    <t>для RestAPI</t>
+  </si>
+  <si>
+    <t>только статусы диалогов - неназначенные, мои, закрытые</t>
+  </si>
+  <si>
+    <t>Cтоимость (круглосуточная поддержка, минимум 10 менеджеров</t>
+  </si>
+  <si>
+    <t>за всё время, за месяц, за неделю, за день</t>
+  </si>
+  <si>
+    <t>только количество закрытых диалогов</t>
+  </si>
+  <si>
+    <t>6-15 менеджеров</t>
+  </si>
+  <si>
+    <t>16+ менеджеров, круглосуточная техподдержка</t>
+  </si>
+  <si>
+    <t>на месяц</t>
+  </si>
+  <si>
+    <t>на полгода</t>
+  </si>
+  <si>
+    <t>на год</t>
+  </si>
+  <si>
+    <t>$249/месяц</t>
+  </si>
+  <si>
+    <t>$224/месяц</t>
+  </si>
+  <si>
+    <t>$199/месяц</t>
+  </si>
+  <si>
+    <t>$599/месяц</t>
+  </si>
+  <si>
+    <t>$539/месяц</t>
+  </si>
+  <si>
+    <t>$499/месяц</t>
+  </si>
+  <si>
+    <t>Веб-админка менеджера,  RestAPI</t>
+  </si>
+  <si>
+    <t>Веб-админка менеджера, RestAPI, модули для node.js</t>
+  </si>
+  <si>
+    <t>Любой цвет, выбор из нескольких видов окна чата, возможность добавления собственных CSS, JS API</t>
+  </si>
+  <si>
+    <t>Для RestAPI, для JS API</t>
+  </si>
+  <si>
+    <t>есть, фильтрация по времени, менеджеру, оценке диалога, тэгу (выставляется менеджерами)</t>
+  </si>
+  <si>
+    <t>любой период, также есть возможность посмотреть, кто начал разговор, клиент либо менеджер</t>
+  </si>
+  <si>
+    <t>хранение тэгов, оценок (хорошо\плохо), статусов тикетов (открытый/в ожидании/решённый)</t>
+  </si>
+  <si>
+    <t>$36/человекомесяц</t>
+  </si>
+  <si>
+    <t>$30/человекомесяц</t>
+  </si>
+  <si>
+    <t>есть, отключаемая и настраиваемая (имя, почта, телефон</t>
+  </si>
+  <si>
+    <t>есть, отключаемая и настраиваемая (имя, почта, произвольные дропдауны, списки из чекбоксов и радиобаттонов)</t>
+  </si>
+  <si>
+    <t>есть, также есть ответить на почту, если клиент её оставил</t>
+  </si>
+  <si>
+    <t>Цвет, позиция кнопки, несколько незначительных настроек (типа показывать ли лого чатры), JS API</t>
+  </si>
+  <si>
+    <t>Есть, без фильтрации и сортировки, по факту просто списки диалогов, которые можно прокручивать вверх (мои, пропущенные, заблокированные, все)</t>
+  </si>
+  <si>
+    <t>есть, но не для конкретного менеджера</t>
+  </si>
+  <si>
+    <t>Статусы диалогов (пропущенные, заблокированные)</t>
+  </si>
+  <si>
+    <t>450 руб/человекомесяц</t>
+  </si>
+  <si>
+    <t>700 руб/человекомесяц</t>
+  </si>
+  <si>
+    <t>Без ограничений по количеству</t>
+  </si>
+  <si>
+    <t>есть, очень серьёзная фильтрация (время, менеджер, тэги, оценки, количество сообщений, только непрочитанные, и т.д.), сортировка</t>
+  </si>
+  <si>
+    <t>Веб-админка менеджера, RestAPI, модули для node.js, python и др.</t>
+  </si>
+  <si>
+    <t>есть, отключаемая и настраиваемая (имя, почта, телефон), также с помощью фейсбука и гугла</t>
+  </si>
+  <si>
+    <t>цвет, положение, несколько видов окна и кнопки.</t>
+  </si>
+  <si>
+    <t>Для RestAPI</t>
+  </si>
+  <si>
+    <t>Завершённые, пропущенные, без ответа клиента на вопрос менеджера</t>
+  </si>
+  <si>
+    <t>$55/человекомесяц</t>
+  </si>
+  <si>
+    <t>$44/человекомесяц</t>
+  </si>
+  <si>
+    <t>$25/человекомесяц</t>
+  </si>
+  <si>
+    <t>$20/человекомесяц</t>
+  </si>
+  <si>
+    <t>Без ограничений по количеству, но без отчётов по менеджерам и поддержка только в рабочие дни</t>
+  </si>
+  <si>
+    <t>Круглосуточная поддержка и отчёты</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -148,10 +304,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,206 +643,945 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.42578125" customWidth="1"/>
-    <col min="2" max="8" width="21" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="34" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" customWidth="1"/>
+    <col min="10" max="11" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
+  <mergeCells count="94">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/сравнение.xlsx
+++ b/сравнение.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="102">
   <si>
     <t>Blinger</t>
   </si>
@@ -169,12 +169,6 @@
     <t>$499/месяц</t>
   </si>
   <si>
-    <t>Веб-админка менеджера,  RestAPI</t>
-  </si>
-  <si>
-    <t>Веб-админка менеджера, RestAPI, модули для node.js</t>
-  </si>
-  <si>
     <t>Любой цвет, выбор из нескольких видов окна чата, возможность добавления собственных CSS, JS API</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
     <t>$30/человекомесяц</t>
   </si>
   <si>
-    <t>есть, отключаемая и настраиваемая (имя, почта, телефон</t>
-  </si>
-  <si>
     <t>есть, отключаемая и настраиваемая (имя, почта, произвольные дропдауны, списки из чекбоксов и радиобаттонов)</t>
   </si>
   <si>
@@ -214,24 +205,15 @@
     <t>есть, но не для конкретного менеджера</t>
   </si>
   <si>
-    <t>Статусы диалогов (пропущенные, заблокированные)</t>
-  </si>
-  <si>
     <t>450 руб/человекомесяц</t>
   </si>
   <si>
     <t>700 руб/человекомесяц</t>
   </si>
   <si>
-    <t>Без ограничений по количеству</t>
-  </si>
-  <si>
     <t>есть, очень серьёзная фильтрация (время, менеджер, тэги, оценки, количество сообщений, только непрочитанные, и т.д.), сортировка</t>
   </si>
   <si>
-    <t>Веб-админка менеджера, RestAPI, модули для node.js, python и др.</t>
-  </si>
-  <si>
     <t>есть, отключаемая и настраиваемая (имя, почта, телефон), также с помощью фейсбука и гугла</t>
   </si>
   <si>
@@ -241,9 +223,6 @@
     <t>Для RestAPI</t>
   </si>
   <si>
-    <t>Завершённые, пропущенные, без ответа клиента на вопрос менеджера</t>
-  </si>
-  <si>
     <t>$55/человекомесяц</t>
   </si>
   <si>
@@ -260,6 +239,87 @@
   </si>
   <si>
     <t>Круглосуточная поддержка и отчёты</t>
+  </si>
+  <si>
+    <t>есть, отключаемая и настраиваемая (имя, почта, телефон)</t>
+  </si>
+  <si>
+    <t>есть (без отображения в чате, по сути обмен ссылками)</t>
+  </si>
+  <si>
+    <t>есть, отключаемая и настраиваемая (имя, почта, телефон и др.)</t>
+  </si>
+  <si>
+    <t>Цвет, варианты кнопок</t>
+  </si>
+  <si>
+    <t>есть, фильтрация по периоду, оператору, посетителю, даже по содержанию сообщений</t>
+  </si>
+  <si>
+    <t>Для API админки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">есть </t>
+  </si>
+  <si>
+    <t>ИНДИВИДУАЛЬНО</t>
+  </si>
+  <si>
+    <t>есть, НО ТОЛЬКО НА ПОЧТУ</t>
+  </si>
+  <si>
+    <t>Цвет, позиция кнопки</t>
+  </si>
+  <si>
+    <t>есть, только у администратора, фильтрация по периоду, сортировка по виду диалога</t>
+  </si>
+  <si>
+    <t>для API админки</t>
+  </si>
+  <si>
+    <t>"режим перерыва"</t>
+  </si>
+  <si>
+    <t>только у администратора в истории переписки и на почте</t>
+  </si>
+  <si>
+    <t>оффлайн/онлайн, количество сообщений в диалоге, время диалога, оценка</t>
+  </si>
+  <si>
+    <t>Статусы диалогов (пропущенные, заблокированные), оценки</t>
+  </si>
+  <si>
+    <t>Завершённые, пропущенные, без ответа клиента на вопрос менеджера, оценки</t>
+  </si>
+  <si>
+    <t>время диалога</t>
+  </si>
+  <si>
+    <t>на 3 месяца</t>
+  </si>
+  <si>
+    <t>760 руб/человекомесяц</t>
+  </si>
+  <si>
+    <t>684 руб/человекомесяц</t>
+  </si>
+  <si>
+    <t>608 руб/человекомесяц</t>
+  </si>
+  <si>
+    <t>456 руб/человекомесяц</t>
+  </si>
+  <si>
+    <t>Веб-панель,  RestAPI</t>
+  </si>
+  <si>
+    <t>Веб-панель, RestAPI, модули для node.js</t>
+  </si>
+  <si>
+    <t>Веб-панель, RestAPI, модули для node.js, python и др.</t>
+  </si>
+  <si>
+    <t>Веб-панель</t>
   </si>
 </sst>
 </file>
@@ -304,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -321,23 +381,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,10 +712,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,669 +732,760 @@
     <col min="7" max="7" width="26.140625" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
     <col min="9" max="9" width="29.42578125" customWidth="1"/>
-    <col min="10" max="11" width="21" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="8"/>
       <c r="E3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="7"/>
+      <c r="F3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="8"/>
       <c r="H3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="8"/>
       <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="7"/>
+        <v>58</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="8"/>
       <c r="H5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8"/>
       <c r="E12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="7"/>
+      <c r="F12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="8"/>
       <c r="H12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="8"/>
       <c r="E13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="7"/>
+      <c r="F13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="8"/>
       <c r="H13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="8"/>
       <c r="E14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="8"/>
       <c r="H14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="7"/>
+      <c r="F15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="8"/>
       <c r="H15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="8"/>
       <c r="E16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="7"/>
+      <c r="F16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="8"/>
       <c r="H16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="8"/>
       <c r="H17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="8"/>
       <c r="E18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="7"/>
+      <c r="F18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="8"/>
       <c r="H18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="7"/>
+        <v>52</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="8"/>
       <c r="H21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="7"/>
+      <c r="F22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="8"/>
       <c r="H22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="I22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="8"/>
       <c r="E23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="7"/>
+      <c r="F23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="8"/>
       <c r="H23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="I23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="8"/>
       <c r="H25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="I25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="8"/>
       <c r="H26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="1"/>
+      <c r="I26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="7" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="8"/>
       <c r="H27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="I27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="8"/>
       <c r="E28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="7"/>
+      <c r="F28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="8"/>
       <c r="H28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="I28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="8"/>
       <c r="H29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="5"/>
@@ -1332,24 +1495,22 @@
       <c r="D33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>69</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="H33" s="5"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="J33" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+      <c r="A34" s="12"/>
       <c r="B34" s="3" t="s">
         <v>42</v>
       </c>
@@ -1360,81 +1521,85 @@
         <v>48</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I34" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="J34" s="4"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="12"/>
       <c r="B35" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="J35" s="4"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I36" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="J36" s="4"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="3"/>
       <c r="C38" s="1"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1447,7 +1612,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="B39" s="1"/>
       <c r="C39" s="2"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1460,7 +1625,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1484,66 +1649,32 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A1:B1"/>
@@ -1560,26 +1691,63 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/сравнение.xlsx
+++ b/сравнение.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="113">
   <si>
     <t>Blinger</t>
   </si>
@@ -22,9 +22,6 @@
     <t>LiveChat</t>
   </si>
   <si>
-    <t>Zendesc</t>
-  </si>
-  <si>
     <t>Chatra</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
     <t>Цвет, позиция кнопки</t>
   </si>
   <si>
-    <t>есть, только у администратора, фильтрация по периоду, сортировка по виду диалога</t>
-  </si>
-  <si>
     <t>для API админки</t>
   </si>
   <si>
@@ -310,16 +304,55 @@
     <t>456 руб/человекомесяц</t>
   </si>
   <si>
-    <t>Веб-панель,  RestAPI</t>
-  </si>
-  <si>
-    <t>Веб-панель, RestAPI, модули для node.js</t>
-  </si>
-  <si>
-    <t>Веб-панель, RestAPI, модули для node.js, python и др.</t>
-  </si>
-  <si>
     <t>Веб-панель</t>
+  </si>
+  <si>
+    <t>Веб-панель,  RestAPI, телеграм и куча других мессенжеров</t>
+  </si>
+  <si>
+    <t>Десктоп-приложение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Веб-панель, RestAPI, модули для node.js, python и др, </t>
+  </si>
+  <si>
+    <t>Веб-панель, RestAPI, модули для node.js, мобильное и десктоп-приложение</t>
+  </si>
+  <si>
+    <t>Веб-панель,  RestAPI, мобильное и десктоп-приложение</t>
+  </si>
+  <si>
+    <t>Цвет, позиция, варианты кнопок</t>
+  </si>
+  <si>
+    <t>есть (имя и в случае оффлайн-сообщения почта)</t>
+  </si>
+  <si>
+    <t>есть, фильтрация по периоду, оценке, оператору, содержанию сообщений</t>
+  </si>
+  <si>
+    <t>есть, фильтрация по периоду, сортировка по виду диалога</t>
+  </si>
+  <si>
+    <t>только текущие диалоги</t>
+  </si>
+  <si>
+    <t>есть, можно переводить с оператора на оператора</t>
+  </si>
+  <si>
+    <t>есть, можно даже больше чем одному оператору</t>
+  </si>
+  <si>
+    <t>База знаний, Widget API, SDK для IOS и Android, Messaging API (для внешних сервисов)</t>
+  </si>
+  <si>
+    <t>от 765 руб/человекомесяц</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Техподдержка с 9 до 19 по будням, с 10 до 18 по выходным (по Москве) </t>
+  </si>
+  <si>
+    <t>Zendesk</t>
   </si>
 </sst>
 </file>
@@ -364,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -385,18 +418,30 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -406,7 +451,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,10 +760,10 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="K34" sqref="K34:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,869 +778,917 @@
     <col min="8" max="8" width="34" customWidth="1"/>
     <col min="9" max="9" width="29.42578125" customWidth="1"/>
     <col min="10" max="10" width="31.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="13" t="s">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="4" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="I7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="7" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="1"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="8"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="14"/>
       <c r="E18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="14"/>
       <c r="H18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="1"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="8" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="4" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="K26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="8"/>
+      <c r="F29" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="14"/>
       <c r="H29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K29" s="1"/>
+      <c r="K29" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="1"/>
+      <c r="K30" s="7"/>
     </row>
     <row r="31" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="7"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>37</v>
+      <c r="A33" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="H33" s="5"/>
       <c r="I33" s="4"/>
       <c r="J33" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K33" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="18"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J36" s="4"/>
-      <c r="K36" s="1"/>
+      <c r="K36" s="18"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J37" s="4"/>
-      <c r="K37" s="1"/>
+      <c r="K37" s="18"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
@@ -1608,7 +1701,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="1"/>
+      <c r="K38" s="7"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
@@ -1621,7 +1714,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="1"/>
+      <c r="K39" s="7"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
@@ -1634,7 +1727,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="1"/>
+      <c r="K40" s="7"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
@@ -1647,69 +1740,30 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
+      <c r="K41" s="7"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
+      <c r="K42" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
+  <mergeCells count="95">
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="K34:K37"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
@@ -1724,30 +1778,71 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
